--- a/铝/eta/沪铝期货价格_月度数据.xlsx
+++ b/铝/eta/沪铝期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>21106</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20993</v>
+        <v>21048</v>
       </c>
       <c r="C3" t="n">
-        <v>21059</v>
+        <v>20969</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>20782</v>
       </c>
       <c r="C4" t="n">
-        <v>20791</v>
+        <v>20784</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         <v>20612</v>
       </c>
       <c r="C6" t="n">
-        <v>20613</v>
+        <v>20612</v>
       </c>
     </row>
     <row r="7">
@@ -575,7 +575,7 @@
         <v>20610</v>
       </c>
       <c r="C11" t="n">
-        <v>20612</v>
+        <v>20613</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>20123</v>
       </c>
       <c r="C12" t="n">
-        <v>20122</v>
+        <v>20121</v>
       </c>
     </row>
     <row r="13">
@@ -614,7 +614,7 @@
         <v>20790</v>
       </c>
       <c r="C14" t="n">
-        <v>20783</v>
+        <v>20782</v>
       </c>
     </row>
     <row r="15">
@@ -653,7 +653,7 @@
         <v>19407</v>
       </c>
       <c r="C17" t="n">
-        <v>19403</v>
+        <v>19404</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +679,7 @@
         <v>20676</v>
       </c>
       <c r="C19" t="n">
-        <v>20679</v>
+        <v>20678</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>20913</v>
       </c>
       <c r="C20" t="n">
-        <v>20905</v>
+        <v>20904</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +718,7 @@
         <v>19271</v>
       </c>
       <c r="C22" t="n">
-        <v>19270</v>
+        <v>19271</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>18839</v>
       </c>
       <c r="C23" t="n">
-        <v>18842</v>
+        <v>18841</v>
       </c>
     </row>
     <row r="24">
